--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_62.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_62.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sotaro Nakamura</t>
+          <t>Jun Takahashi</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sotaro Nakamura</t>
+          <t>Jun Takahashi</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sotaro Nakamura</t>
+          <t>Jun Takahashi</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Sotaro Nakamura</t>
+          <t>Jun Takahashi</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Sotaro Nakamura</t>
+          <t>Jun Takahashi</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Sotaro Nakamura</t>
+          <t>Jun Takahashi</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Sotaro Nakamura</t>
+          <t>Jun Takahashi</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Sotaro Nakamura</t>
+          <t>Jun Takahashi</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Sotaro Nakamura</t>
+          <t>Jun Takahashi</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Sotaro Nakamura</t>
+          <t>Jun Takahashi</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Sotaro Nakamura</t>
+          <t>Jun Takahashi</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Sotaro Nakamura</t>
+          <t>Jun Takahashi</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Sotaro Nakamura</t>
+          <t>Jun Takahashi</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Sotaro Nakamura</t>
+          <t>Jun Takahashi</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Sotaro Nakamura</t>
+          <t>Jun Takahashi</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
